--- a/data/trans_orig/P79_n_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R2-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>85788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69205</v>
+        <v>68214</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>106665</v>
+        <v>105201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1720104321057997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1387608822653409</v>
+        <v>0.1367736085336123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2138685252913059</v>
+        <v>0.2109340867165408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -762,19 +762,19 @@
         <v>89920</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73350</v>
+        <v>74106</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110720</v>
+        <v>109546</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1442002821752158</v>
+        <v>0.1442002821752159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1176271954130905</v>
+        <v>0.1188390062630081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1775548795196862</v>
+        <v>0.1756724721017492</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>188</v>
@@ -783,19 +783,19 @@
         <v>175709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>148859</v>
+        <v>150981</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>202718</v>
+        <v>201348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1565586297549363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1326350217210344</v>
+        <v>0.1345254956720541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1806238642733476</v>
+        <v>0.1794035962331701</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>412951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392074</v>
+        <v>393538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>429534</v>
+        <v>430525</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8279895678942002</v>
+        <v>0.8279895678942003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7861314747086938</v>
+        <v>0.7890659132834589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.861239117734659</v>
+        <v>0.8632263914663876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>750</v>
@@ -833,19 +833,19 @@
         <v>533660</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>512860</v>
+        <v>514034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>550230</v>
+        <v>549474</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8557997178247838</v>
+        <v>0.855799717824784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.822445120480314</v>
+        <v>0.8243275278982509</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8823728045869096</v>
+        <v>0.8811609937369917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1128</v>
@@ -854,19 +854,19 @@
         <v>946611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>919602</v>
+        <v>920972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>973461</v>
+        <v>971339</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8434413702450637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8193761357266525</v>
+        <v>0.8205964037668299</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8673649782789654</v>
+        <v>0.865474504327946</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>53881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41028</v>
+        <v>40530</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70074</v>
+        <v>70697</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05611792633827638</v>
+        <v>0.05611792633827637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04273091617308048</v>
+        <v>0.04221303899171466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07298297956296571</v>
+        <v>0.07363181752883902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -979,19 +979,19 @@
         <v>55457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42119</v>
+        <v>43729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68825</v>
+        <v>70990</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04969917312441378</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03774642532824776</v>
+        <v>0.03918913232390031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06167974808558122</v>
+        <v>0.0636201555092254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -1000,19 +1000,19 @@
         <v>109338</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89837</v>
+        <v>92175</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129116</v>
+        <v>131869</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0526678253300799</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04327423276552513</v>
+        <v>0.04440049040307407</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06219516554538122</v>
+        <v>0.06352115203382799</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>906256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>890063</v>
+        <v>889440</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>919109</v>
+        <v>919607</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9438820736617237</v>
+        <v>0.9438820736617236</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9270170204370344</v>
+        <v>0.9263681824711609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9572690838269197</v>
+        <v>0.9577869610082853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1535</v>
@@ -1050,19 +1050,19 @@
         <v>1060392</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1047024</v>
+        <v>1044859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1073730</v>
+        <v>1072120</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9503008268755861</v>
+        <v>0.9503008268755859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.938320251914419</v>
+        <v>0.9363798444907747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9622535746717522</v>
+        <v>0.9608108676760998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2392</v>
@@ -1071,19 +1071,19 @@
         <v>1966648</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1946870</v>
+        <v>1944117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1986149</v>
+        <v>1983811</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9473321746699201</v>
+        <v>0.94733217466992</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9378048344546185</v>
+        <v>0.9364788479661721</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.956725767234475</v>
+        <v>0.955599509596926</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2065</v>
+        <v>2015</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12027</v>
+        <v>11564</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005594380801894747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001973137723807573</v>
+        <v>0.001925238868406617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01149306834000385</v>
+        <v>0.01104992084148141</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>4363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1556</v>
+        <v>1525</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10091</v>
+        <v>9487</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.00416454965251977</v>
+        <v>0.004164549652519771</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001485398121220548</v>
+        <v>0.001455988198916296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009632468998102115</v>
+        <v>0.009055546204567621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1217,19 +1217,19 @@
         <v>10217</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4912</v>
+        <v>5030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16852</v>
+        <v>18339</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.004879068408039343</v>
+        <v>0.004879068408039344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002345712190746872</v>
+        <v>0.002401825144615339</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008047344698206395</v>
+        <v>0.008757405427238074</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1040625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1034452</v>
+        <v>1034915</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1044414</v>
+        <v>1044464</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9944056191981052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.988506931659996</v>
+        <v>0.9889500791585184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980268622761924</v>
+        <v>0.9980747611315933</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1511</v>
@@ -1267,19 +1267,19 @@
         <v>1043279</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1037551</v>
+        <v>1038155</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1046086</v>
+        <v>1046117</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9958354503474801</v>
+        <v>0.9958354503474803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9903675310018976</v>
+        <v>0.9909444537954323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985146018787791</v>
+        <v>0.9985440118010837</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2534</v>
@@ -1288,19 +1288,19 @@
         <v>2083904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2077269</v>
+        <v>2075782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2089209</v>
+        <v>2089091</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9951209315919606</v>
+        <v>0.9951209315919607</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9919526553017937</v>
+        <v>0.9912425945727618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9976542878092532</v>
+        <v>0.9975981748553843</v>
       </c>
     </row>
     <row r="12">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5732</v>
+        <v>6550</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001187897072448358</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005873175434390135</v>
+        <v>0.006711489737837391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5097</v>
+        <v>5081</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00159679015226735</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005599145673082078</v>
+        <v>0.005581539995311457</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1434,19 +1434,19 @@
         <v>2613</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7824</v>
+        <v>7179</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001385235174273982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0003729437289983113</v>
+        <v>0.0003730594180011533</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0041478038995832</v>
+        <v>0.003805756198741805</v>
       </c>
     </row>
     <row r="14">
@@ -1463,16 +1463,16 @@
         <v>974770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>970197</v>
+        <v>969379</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>975929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9988121029275516</v>
+        <v>0.9988121029275515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9941268245656099</v>
+        <v>0.9932885102621619</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>908891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>905248</v>
+        <v>905264</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>910345</v>
@@ -1493,7 +1493,7 @@
         <v>0.9984032098477327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9944008543269182</v>
+        <v>0.9944184600046887</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1505,19 +1505,19 @@
         <v>1883661</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1878450</v>
+        <v>1879095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1885571</v>
+        <v>1885570</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9986147648257262</v>
+        <v>0.998614764825726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9958521961004175</v>
+        <v>0.9961942438012582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9996270562710017</v>
+        <v>0.9996269405819989</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>146683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>123048</v>
+        <v>122291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>174181</v>
+        <v>175090</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04213472414986981</v>
+        <v>0.0421347241498698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03534571331975681</v>
+        <v>0.0351282680865393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05003348636993987</v>
+        <v>0.05029469403892946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -1630,19 +1630,19 @@
         <v>151194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>127824</v>
+        <v>131813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175100</v>
+        <v>179051</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04089175290193672</v>
+        <v>0.04089175290193674</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03457111962893157</v>
+        <v>0.03565011897119029</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04735746995227826</v>
+        <v>0.04842604358998303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>327</v>
@@ -1651,19 +1651,19 @@
         <v>297877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>267231</v>
+        <v>264734</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>334429</v>
+        <v>335399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04149452723394042</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03722546920860964</v>
+        <v>0.03687774867382349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04658626354550851</v>
+        <v>0.04672137192990972</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3334601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3307103</v>
+        <v>3306194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3358236</v>
+        <v>3358993</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9578652758501301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9499665136300601</v>
+        <v>0.9497053059610709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9646542866802434</v>
+        <v>0.9648717319134609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5118</v>
@@ -1701,19 +1701,19 @@
         <v>3546222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3522316</v>
+        <v>3518365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3569592</v>
+        <v>3565603</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9591082470980632</v>
+        <v>0.9591082470980634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9526425300477217</v>
+        <v>0.9515739564100171</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9654288803710687</v>
+        <v>0.9643498810288097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8322</v>
@@ -1722,19 +1722,19 @@
         <v>6880824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6844272</v>
+        <v>6843302</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6911470</v>
+        <v>6913967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9585054727660596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9534137364544915</v>
+        <v>0.9532786280700902</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9627745307913904</v>
+        <v>0.9631222513261766</v>
       </c>
     </row>
     <row r="18">
